--- a/sapienter/docs/Imprimir/Tests.xlsx
+++ b/sapienter/docs/Imprimir/Tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Nro.</t>
   </si>
@@ -219,15 +219,18 @@
     <t xml:space="preserve">Ingresar a su email </t>
   </si>
   <si>
-    <t>rperrone@sapienter.org
-32677633</t>
-  </si>
-  <si>
-    <t>mtoth@sapienter.org
-matiastoth</t>
-  </si>
-  <si>
     <t>Crear una nueva tarea seleccionando un día del calendario</t>
+  </si>
+  <si>
+    <t>SAPIENTER</t>
+  </si>
+  <si>
+    <t>sapienterTest2@sapienter.org
+Sapienter01!</t>
+  </si>
+  <si>
+    <t>sapienterTest@sapienter.org
+Sapienter01!</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -309,6 +312,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -317,7 +357,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +415,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,63 +720,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="55" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8">
+    <row r="3" spans="1:4">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -735,620 +784,629 @@
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="12">
+      <c r="C10" s="14"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="19" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="19" t="s">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" s="8">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="19" t="s">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
         <v>10</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="19" t="s">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12">
         <v>11</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8">
-        <v>12</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="14"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8">
         <v>14</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="8">
-        <v>15</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="8">
+        <v>15</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="8">
         <v>16</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="19" t="s">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8">
         <v>17</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="19" t="s">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="8">
-        <v>18</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="8">
+        <v>18</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" s="8">
         <v>19</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8">
         <v>20</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="19" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="8">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" s="8">
         <v>21</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8">
-        <v>22</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="14"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="8">
+        <v>23</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8">
         <v>24</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="19" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8">
-        <v>25</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="8">
+        <v>26</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8">
-        <v>27</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="11"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8">
+        <v>27</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8">
         <v>28</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="19" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8">
-        <v>29</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" ht="45">
+    <row r="50" spans="1:4">
       <c r="A50" s="8">
+        <v>32</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" ht="45">
+      <c r="A51" s="8">
         <v>33</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="30">
-      <c r="A51" s="8">
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="8">
         <v>34</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8">
-        <v>35</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="8">
+        <v>36</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8">
-        <v>37</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8">
+        <v>37</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8">
         <v>38</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="19" t="s">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-    </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="8">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4" ht="30">
+      <c r="A59" s="8">
         <v>39</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8">
+      <c r="C59" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8">
         <v>40</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="19" t="s">
+      <c r="C60" s="14"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="8">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8">
         <v>41</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="1:4" ht="30">
-      <c r="A62" s="8">
+      <c r="C62" s="14"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" ht="30">
+      <c r="A63" s="8">
         <v>42</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C63" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8">
+        <v>43</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="8">
-        <v>43</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="11"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:D12"/>
+  <mergeCells count="21">
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C58" r:id="rId1"/>
-    <hyperlink ref="C62" r:id="rId2"/>
+    <hyperlink ref="C59" r:id="rId1"/>
+    <hyperlink ref="C63" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/sapienter/docs/Imprimir/Tests.xlsx
+++ b/sapienter/docs/Imprimir/Tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="79">
   <si>
     <t>Nro.</t>
   </si>
@@ -33,9 +33,6 @@
     <t xml:space="preserve">Autenticación correcta </t>
   </si>
   <si>
-    <t>jr: flezana</t>
-  </si>
-  <si>
     <t>Crear Persona Jurídica</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>Acceder a procesos de Mailén</t>
   </si>
   <si>
-    <t>sr: rperrone</t>
-  </si>
-  <si>
-    <t>ssr: mtoth</t>
-  </si>
-  <si>
     <t>Senior: rperrone</t>
   </si>
   <si>
@@ -69,18 +60,6 @@
     <t>Junior: flezana</t>
   </si>
   <si>
-    <t>Usuarios autorizados = vacío</t>
-  </si>
-  <si>
-    <t>Buscar Proceso</t>
-  </si>
-  <si>
-    <t>Melisa</t>
-  </si>
-  <si>
-    <t>Acceder a proceso Melisa</t>
-  </si>
-  <si>
     <t>Error!</t>
   </si>
   <si>
@@ -105,9 +84,6 @@
     <t>Modificar Movimiento: Presentación pruebas</t>
   </si>
   <si>
-    <t>Díaz de validez: 8</t>
-  </si>
-  <si>
     <t>Verificar en el calendario la modificación de la tarea</t>
   </si>
   <si>
@@ -123,9 +99,6 @@
     <t>Abogado: Nicolás Saccone</t>
   </si>
   <si>
-    <t>usuarios autorizados = flezana / mtoth</t>
-  </si>
-  <si>
     <t>Ssenior: mtoth</t>
   </si>
   <si>
@@ -138,32 +111,17 @@
     <t>Ingresar al gasto Viáticos del proceso Melisa y descargar el comprobante</t>
   </si>
   <si>
-    <t>Crear documento desde el proceso Melisa.</t>
-  </si>
-  <si>
-    <t>Verificar el estado del documento: Aprobado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crear documento desde el proceso Melisa, utilizando el modelo: </t>
   </si>
   <si>
-    <t>Pantalla completa. Copiar un documento con formato.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verificar el estado del documento: Pendiente. </t>
   </si>
   <si>
     <t>Asignar la tarea a mtoth.</t>
-  </si>
-  <si>
-    <t>Desde Mis Tareas, rechazar la tarea de flezana</t>
   </si>
   <si>
     <t>Variables:
 Contrato</t>
-  </si>
-  <si>
-    <t>Modificar su documento flezana</t>
   </si>
   <si>
     <t xml:space="preserve">Supervisar la tarea de flezana. </t>
@@ -210,9 +168,6 @@
     <t>Acceder a su correo electrónico</t>
   </si>
   <si>
-    <t>Enviar mail a rperrone@sapienter.org</t>
-  </si>
-  <si>
     <t>Verificar la notificación del mail</t>
   </si>
   <si>
@@ -225,19 +180,91 @@
     <t>SAPIENTER</t>
   </si>
   <si>
-    <t>sapienterTest2@sapienter.org
+    <t>ines. Ines.  / Error!</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>jr: flezana/flezana</t>
+  </si>
+  <si>
+    <t>ssr: mtoth/mtoth</t>
+  </si>
+  <si>
+    <t>sr: rperrone/rperrone</t>
+  </si>
+  <si>
+    <t>NO!</t>
+  </si>
+  <si>
+    <t>Sociedad conyugal</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>Usuarios autorizados = flezana</t>
+  </si>
+  <si>
+    <t>SSenior: mtoth</t>
+  </si>
+  <si>
+    <t>Días de validez: 8</t>
+  </si>
+  <si>
+    <t>Días de validez: 1</t>
+  </si>
+  <si>
+    <t>Crear un nuevo movimiento del proceso Otero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar proceso Otero. </t>
+  </si>
+  <si>
+    <t>Confirmar borrado</t>
+  </si>
+  <si>
+    <t>Verificar que las tareas fueron borradas.</t>
+  </si>
+  <si>
+    <t>Tarea Romina</t>
+  </si>
+  <si>
+    <t>Acceder a calendario, verificar que no tiene la Tarea Romina</t>
+  </si>
+  <si>
+    <t>Modificar la tarea.</t>
+  </si>
+  <si>
+    <t>Ingresar a tareas no asignadas.</t>
+  </si>
+  <si>
+    <t>Rechazar</t>
+  </si>
+  <si>
+    <t>Tratar de modificar Usuarios</t>
+  </si>
+  <si>
+    <t>Enviar mail a sapienterTest@gmail.com</t>
+  </si>
+  <si>
+    <t>sapienterTest2@gmail.com
 Sapienter01!</t>
   </si>
   <si>
-    <t>sapienterTest@sapienter.org
+    <t>sapienterTest@gmail.com
 Sapienter01!</t>
+  </si>
+  <si>
+    <t>Modificar  proceso Melisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +300,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,7 +390,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,6 +457,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -722,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,7 +783,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -750,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
@@ -763,10 +810,12 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="C3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12">
@@ -776,29 +825,35 @@
         <v>4</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -809,58 +864,68 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12">
         <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="19" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -871,152 +936,178 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D19" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
-        <v>8</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="19" t="s">
+      <c r="C21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="8">
-        <v>9</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="12">
-        <v>11</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30">
       <c r="A26" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="30">
       <c r="A27" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="19" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -1024,19 +1115,21 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -1044,79 +1137,79 @@
     </row>
     <row r="31" spans="1:4" ht="30">
       <c r="A31" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="30">
-      <c r="A32" s="8">
-        <v>19</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D31" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" ht="30">
+      <c r="A34" s="8">
+        <v>25</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="8">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C35" s="14"/>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8">
-        <v>22</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="19" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -1124,17 +1217,17 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -1142,27 +1235,29 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="19" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -1170,243 +1265,280 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45" s="14"/>
-      <c r="D45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
+      <c r="A46" s="8">
+        <v>34</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45">
       <c r="A48" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30">
       <c r="A49" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C49" s="14"/>
-      <c r="D49" s="11"/>
+      <c r="D49" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C50" s="14"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="45">
+      <c r="D50" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="8">
-        <v>34</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C53" s="14"/>
-      <c r="D53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8">
-        <v>37</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30">
       <c r="A57" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" ht="30">
-      <c r="A59" s="8">
-        <v>39</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="11"/>
+      <c r="A58" s="8">
+        <v>43</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C60" s="14"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D60" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30">
+      <c r="A61" s="8">
+        <v>45</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30">
       <c r="A62" s="8">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="8">
-        <v>42</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D62" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4" ht="30">
       <c r="A64" s="8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C64" s="14"/>
-      <c r="D64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C59" r:id="rId1"/>
-    <hyperlink ref="C63" r:id="rId2"/>
+    <hyperlink ref="C57" r:id="rId1"/>
+    <hyperlink ref="C61" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
